--- a/Backend_men_spa_data.xlsx
+++ b/Backend_men_spa_data.xlsx
@@ -478,458 +478,458 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Naturals Unisex Salon Surathkal</t>
+          <t>Sandhya’s Beauty Care Clinik</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1st Floor, Vijay Mahal, Main Road, near Ribbons and Balloons, Iddya Village, Surathkal, Mangaluru</t>
+          <t>Old Post Office Rd, Surathkal, Mangaluru</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Monday-Friday: 9:30 AM – 8:30 PM</t>
+          <t>Monday-Friday: 9:00 AM – 8:00 PM</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>+91 97407 20132</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>https://salons.naturals.in/naturals-unisex-salon-surathkal-beauty-salons-surathkal-520097/Home?utm_source=locator&amp;utm_medium=googleplaces</t>
-        </is>
-      </c>
+          <t>+91 96861 60365</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=7125128025969988551</t>
+          <t>https://maps.google.com/?cid=7857795109075466448</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sarita's Pampering Palace</t>
+          <t>Brahmi Beauty Parlour</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1st Floor, Srinivasa Complex Edply, pnvl highway, opp. Govinda Dasa College, Surathkal, Mangaluru</t>
+          <t>Katipalla, Mangaluru</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Monday-Friday: 9:30 AM – 7:30 PM</t>
+          <t>Monday-Friday: 10:00 AM – 8:30 PM</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>+91 96869 76211</t>
+          <t>+91 63647 71558</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=16367971689633015432</t>
+          <t>https://maps.google.com/?cid=8939840050446087158</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>B'Plus Professional Unisex Salon</t>
+          <t>UNIQUE PROFESSIONAL UNISEX SALON</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1st floor, Shanthi sadan, Surathkal, Mangaluru</t>
+          <t>Shop No F3, F4, 1st Floor, near Srinivas Hospital Adhidhan Land Mark Building, Mukka, Mangaluru</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Monday-Friday: 9:00 AM – 8:30 PM</t>
+          <t>Monday-Friday: 9:00 AM – 8:00 PM</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>+91 77956 63111</t>
+          <t>+91 72048 81243</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=2213864925948255164</t>
+          <t>https://maps.google.com/?cid=12990322004268924615</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Aikyam Auto Spa &amp; Detailing</t>
+          <t>Glow and glam beauty parlour</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>bustand, NH 66, near Hosabettu, Hosabettu, Surathkal, Mangaluru</t>
+          <t>Krishna Arcade, Edapally - Panvel Hwy, Surathkal</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Monday-Friday: 8:30 AM – 8:00 PM</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>+91 73536 14882</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>https://aikyamautospa.com/?nocache=1</t>
-        </is>
-      </c>
+          <t>Monday-Friday: 9:30 AM – 8:00 PM</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=714714468847616312</t>
+          <t>https://maps.google.com/?cid=643029042568892779</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sandhya’s Beauty Care Clinik</t>
+          <t>GLAMOUR LADIES BEAUTY SALON</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Old Post Office Rd, Surathkal, Mangaluru</t>
+          <t>1st Floor, #12, Adhidan Land Mark Building, Mukka, Mangaluru</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Monday-Friday: 9:00 AM – 8:00 PM</t>
+          <t>Monday-Friday: 10:00 AM – 7:00 PM</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>+91 96861 60365</t>
+          <t>+91 81977 20400</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=7857795109075466448</t>
+          <t>https://maps.google.com/?cid=17814378601412697077</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>The Mirrored Unisex Salon</t>
+          <t>Xtreme Fit &amp; Fight Club – Surathkal’s Biggest Luxury Gym</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ground Floor, Abhish Mall, near More Supermarket, Surathkal, Mangaluru</t>
+          <t>2nd floor, HNGC ICON CITY, Surathkal, Mangaluru</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Monday-Friday: 9:00 AM – 8:00 PM</t>
+          <t>Monday-Friday: 5:30 AM – 10:30 PM</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>+91 824 350 0276</t>
+          <t>+91 99162 58798</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>http://themirroredunisexsalon.com/?utm_source=gmb&amp;utm_medium=referral</t>
+          <t>https://xtremefitfightclub.in/</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=3970264084842923578</t>
+          <t>https://maps.google.com/?cid=173373696891636268</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Glow and glam beauty parlour</t>
+          <t>Face glow ladies Beauty Parlour</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Krishna Arcade, Edapally - Panvel Hwy, Surathkal</t>
+          <t>Coastal Arcade, Surathkal, Mangaluru</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Monday-Friday: 9:30 AM – 8:00 PM</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+          <t>Monday-Friday: 8:30 AM – 8:30 PM</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>+91 97403 08545</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://face-glow-ladies-beauty-parlour.business.site/</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=643029042568892779</t>
+          <t>https://maps.google.com/?cid=4752085954908933186</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>UNIQUE PROFESSIONAL UNISEX SALON</t>
+          <t>Sarita's Pampering Palace</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Shop No F3, F4, 1st Floor, near Srinivas Hospital Adhidhan Land Mark Building, Mukka, Mangaluru</t>
+          <t>1st Floor, Srinivasa Complex Edply, pnvl highway, opp. Govinda Dasa College, Surathkal, Mangaluru</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Monday-Friday: 9:00 AM – 8:00 PM</t>
+          <t>Monday-Friday: 9:30 AM – 7:30 PM</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>+91 72048 81243</t>
+          <t>+91 96869 76211</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=12990322004268924615</t>
+          <t>https://maps.google.com/?cid=16367971689633015432</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Happy pawz pets spa</t>
+          <t>Naturals Unisex Salon Surathkal</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Krishnapura Mutt Rd, Krishnapura, Surathkal, Mangaluru</t>
+          <t>1st Floor, Vijay Mahal, Main Road, near Ribbons and Balloons, Iddya Village, Surathkal, Mangaluru</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Monday-Friday: 8:00 AM – 6:00 PM</t>
+          <t>Monday-Friday: 9:30 AM – 8:30 PM</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>+91 99007 61413</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr"/>
+          <t>+91 97407 20132</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://salons.naturals.in/naturals-unisex-salon-surathkal-beauty-salons-surathkal-520097/Home?utm_source=locator&amp;utm_medium=googleplaces</t>
+        </is>
+      </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=2119298515574880117</t>
+          <t>https://maps.google.com/?cid=7125128025969988551</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Face glow ladies Beauty Parlour</t>
+          <t>Happy pawz pets spa</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Coastal Arcade, Surathkal, Mangaluru</t>
+          <t>Krishnapura Mutt Rd, Krishnapura, Surathkal, Mangaluru</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Monday-Friday: 8:30 AM – 8:30 PM</t>
+          <t>Monday-Friday: 8:00 AM – 6:00 PM</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>+91 97403 08545</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>https://face-glow-ladies-beauty-parlour.business.site/</t>
-        </is>
-      </c>
+          <t>+91 99007 61413</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=4752085954908933186</t>
+          <t>https://maps.google.com/?cid=2119298515574880117</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Xtreme Fit &amp; Fight Club – Surathkal’s Biggest Luxury Gym</t>
+          <t>Aikyam Auto Spa &amp; Detailing</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2nd floor, HNGC ICON CITY, Surathkal, Mangaluru</t>
+          <t>bustand, NH 66, near Hosabettu, Hosabettu, Surathkal, Mangaluru</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Monday-Friday: 5:30 AM – 10:30 PM</t>
+          <t>Monday-Friday: 8:30 AM – 8:00 PM</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>+91 99162 58798</t>
+          <t>+91 73536 14882</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://xtremefitfightclub.in/</t>
+          <t>https://aikyamautospa.com/?nocache=1</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=173373696891636268</t>
+          <t>https://maps.google.com/?cid=714714468847616312</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>GLAMOUR LADIES BEAUTY SALON</t>
+          <t>B'Plus Professional Unisex Salon</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1st Floor, #12, Adhidan Land Mark Building, Mukka, Mangaluru</t>
+          <t>1st floor, Shanthi sadan, Surathkal, Mangaluru</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4.9</v>
+        <v>4.2</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Monday-Friday: 10:00 AM – 7:00 PM</t>
+          <t>Monday-Friday: 9:00 AM – 8:30 PM</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>+91 81977 20400</t>
+          <t>+91 77956 63111</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=17814378601412697077</t>
+          <t>https://maps.google.com/?cid=2213864925948255164</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Brahmi Beauty Parlour</t>
+          <t>The Mirrored Unisex Salon</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Katipalla, Mangaluru</t>
+          <t>Ground Floor, Abhish Mall, near More Supermarket, Surathkal, Mangaluru</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Monday-Friday: 10:00 AM – 8:30 PM</t>
+          <t>Monday-Friday: 9:00 AM – 8:00 PM</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>+91 63647 71558</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr"/>
+          <t>+91 824 350 0276</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>http://themirroredunisexsalon.com/?utm_source=gmb&amp;utm_medium=referral</t>
+        </is>
+      </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=8939840050446087158</t>
+          <t>https://maps.google.com/?cid=3970264084842923578</t>
         </is>
       </c>
     </row>
